--- a/pred_ohlcv/54_21/2020-01-11 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 EOS ohlcv.xlsx
@@ -4110,7 +4110,7 @@
         <v>-624762.2168154406</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-625743.5858154405</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-624905.7701154405</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-625183.8645154404</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-621793.3765154404</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-621685.4435154404</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-622520.3830154404</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-620308.0630154405</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-620321.6134154404</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-620103.1069292604</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-620300.5643292604</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-620307.7443292604</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-620225.1419292605</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-621297.7203292605</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-621297.7203292605</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-621295.4607292605</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-624830.7310292604</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-624828.6110292604</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-624988.5731292604</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-624988.5731292604</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-626150.8613292604</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-626932.0826292604</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-626932.0826292604</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-625545.8993292603</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-625652.7393292603</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-625213.3252292603</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-625213.3252292603</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-625701.9068292603</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-624476.3486292603</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-624526.3486292603</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-624260.5713292604</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-623123.7276292604</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-624416.5483292604</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-624925.1864292604</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-625046.7221292604</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-626417.6344292604</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-642239.3722292604</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-635483.2215292604</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-634473.0029186504</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-633945.4334186504</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-652751.5276186505</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-653428.7051186505</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-653019.0570186505</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-615396.2647499704</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-614646.2647499704</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-614514.5287931404</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-614762.2188931404</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-613763.7755931404</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-618807.7600931404</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-613120.1281931404</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-614991.1781931404</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-614991.1781931404</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-614991.1781931404</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-616334.4808931404</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-616334.4808931404</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-616345.4793931404</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-616673.2295918004</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-617920.4500918004</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-614869.5501918003</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-612946.4340918004</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-612627.0589918004</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-612622.8283918004</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-626889.9151337903</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-624063.1645337903</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-624208.0370337904</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-625116.0908337904</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-625764.4983337903</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-625350.0613337903</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-622817.9373616803</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-615131.5268698004</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-618185.3130698004</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-620362.6086698003</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-888275.6284365511</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-890293.8868365511</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-907751.9471365511</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-909276.9663365511</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-896846.5142191411</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-887812.9071191411</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-891443.192919141</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-892866.867419141</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-890192.211519141</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-890375.384619141</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-890070.972719141</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-894559.1188751712</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-898187.6479751712</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-897683.8582751713</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-912361.0425751712</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-908476.2852751712</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-898666.6954751712</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-885602.4576751712</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-884226.5355751712</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-867379.7632751713</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-869958.7287751713</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-873903.9306751713</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-872692.1288751713</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-872660.2267751714</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-765339.5921398413</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-766311.2354680913</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-761132.8475680914</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-757378.5299163114</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-762364.0304163113</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-767427.6822163113</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-763858.6564163114</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-766377.2290163114</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-767934.7491163113</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-769501.9645163113</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-772851.9774163113</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-772851.9774163113</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-773152.3869163112</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-774864.4802163112</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-769365.3915163112</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-764992.1758163113</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-766913.4682163113</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-766670.5425163113</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-769481.6122163113</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-768852.2152163113</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-766227.7475163114</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-768293.8274163114</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-768285.5523163114</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-762216.5388163114</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-733862.6831163114</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-745180.8982163115</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-744541.3279163114</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-739135.3636163115</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-740684.2871163115</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-740689.2871163115</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-749845.5393163115</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-756498.1862163115</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-753179.4510163115</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-756726.4476163115</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-759600.3386163114</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-758178.1220163114</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-758139.8464163113</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-758128.1217163113</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-758031.3656163113</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-764302.4934163113</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-761536.6165163113</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-760789.7424163114</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-782228.8641163113</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 EOS ohlcv.xlsx
@@ -4162,7 +4162,7 @@
         <v>-624905.7701154405</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-625183.8645154404</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-624329.2843154405</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-621793.3765154404</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-621685.4435154404</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-625545.8993292603</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-625213.3252292603</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-625046.7221292604</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-626417.6344292604</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-642239.3722292604</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-635483.2215292604</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-634473.0029186504</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-633945.4334186504</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-651073.2487186504</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-652751.5276186505</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-653428.7051186505</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-653019.0570186505</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-621161.7551499704</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-621161.7551499704</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-621939.0122499705</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-621939.0122499705</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-621939.0122499705</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-621972.6745499704</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-621972.6745499704</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-618869.0297499704</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-618869.0297499704</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-618056.7219499705</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-615042.5604499704</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-614557.5093499704</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-617906.0970918004</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-617906.0970918004</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-618115.1424918004</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-618115.1424918004</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-618115.1424918004</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-616753.9361918004</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-616753.9361918004</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-615169.5501918003</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-627328.4543337903</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-627328.4543337903</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-627475.6961337903</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-629473.4302337903</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-628502.3822337904</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-628600.1518337904</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-628624.0504337903</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-628624.0504337903</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-628679.1660337903</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-628679.1660337903</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-625967.9002337903</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-625967.9002337903</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-626296.4479337903</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-626296.4479337903</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-626305.9040337902</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-625556.6616770003</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-624436.6126337904</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-625272.7581337903</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-625894.9270337904</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-625916.0960337904</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-625916.0960337904</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-625664.0002337904</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-625414.0002337904</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-623004.4979337903</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-623325.2841337903</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-623325.2841337903</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-623008.7282616803</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-623554.1938616803</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-622717.9373616803</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-622827.5082616804</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-618720.9903616804</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-618946.9723616804</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-617773.3817303304</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-617773.3817303304</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-618080.6769303305</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-618080.6769303305</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-615577.8188303305</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-615578.3925303305</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-615578.3925303305</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-615475.8423698004</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-615482.9830698004</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-615482.9830698004</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-615836.4777698005</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-615649.7336698005</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-615649.7336698005</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-621914.9746698004</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-628459.1784698004</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-640222.1810344204</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-640223.1810344204</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-641446.8837344204</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-641446.8837344204</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-641449.6837344205</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-640868.9217344205</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-640868.9217344205</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-640869.0761344205</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-640902.6478344204</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-640902.6478344204</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-637262.9717344205</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-637698.5081344205</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-637363.3422344205</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-637363.3422344205</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-637380.6852344205</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-639431.2271344204</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-890293.8868365511</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-909276.9663365511</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-909720.7772365512</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-907710.9995426511</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-888158.8838426512</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-876240.8719191412</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-896846.5142191411</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-887812.9071191411</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-891443.192919141</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-892866.867419141</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-890526.741719141</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-890192.211519141</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-890375.384619141</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-890070.972719141</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-890086.6767191411</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-889690.0049191411</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-888029.0960395711</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-886266.8581395712</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-887507.2884395712</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-887216.9917395712</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-887308.7709395712</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-889003.6391560012</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-890383.7883560011</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-894246.9281560011</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-895298.4558560011</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-895297.9958560012</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-895297.9958560012</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-889242.9611560012</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-875884.1354560012</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-894559.1188751712</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-898187.6479751712</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-897683.8582751713</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-925524.4539751712</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-912361.0425751712</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-908476.2852751712</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-898666.6954751712</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-893445.1788751712</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-885602.4576751712</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-884226.5355751712</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-867379.7632751713</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-869958.7287751713</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-873903.9306751713</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-872692.1288751713</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-872660.2267751714</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-878727.7810565813</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-833725.3996729814</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-830847.3269507614</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-832771.9770507613</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-833903.5183507614</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-828535.8725507613</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-823069.1586507614</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-808807.7969507613</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-802720.0214603114</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-829369.2386884714</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-827610.0373884714</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-820989.3466884714</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-819939.8807532714</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-832227.6601532714</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-812826.0268452014</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-789514.8485452014</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-796534.8890452014</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-790695.8270834114</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-768262.0832834113</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-762427.7710290613</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-756979.4695290613</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-765339.5921398413</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-766311.2354680913</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-761132.8475680914</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-757378.5299163114</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-762364.0304163113</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-767427.6822163113</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-763858.6564163114</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-766377.2290163114</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-767934.7491163113</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-769501.9645163113</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-772851.9774163113</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-772851.9774163113</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-773152.3869163112</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-774864.4802163112</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-769365.3915163112</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-764992.1758163113</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-766913.4682163113</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-766670.5425163113</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-769481.6122163113</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-768852.2152163113</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-764884.4719163113</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-766227.7475163114</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-768293.8274163114</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-768285.5523163114</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-762216.5388163114</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-733862.6831163114</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-745180.8982163115</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-744541.3279163114</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-739135.3636163115</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-740684.2871163115</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-740689.2871163115</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-749845.5393163115</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-756498.1862163115</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-753179.4510163115</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-756726.4476163115</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-759600.3386163114</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-758178.1220163114</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-758139.8464163113</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-758128.1217163113</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-758031.3656163113</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-759923.6676163113</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-762379.7634163114</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-759412.6129163114</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-748296.8471163113</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-748296.8471163113</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-750585.5502163114</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-755883.4842163114</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-756117.8788163114</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-755817.8788163114</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-762813.6526163113</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-758900.5766163113</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-764302.4934163113</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-764302.4934163113</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-765168.9188163113</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-765452.8561163113</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-760296.1812163113</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-760990.3912163113</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-761536.6165163113</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-771925.5041163113</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-771877.6535163113</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-771877.6535163113</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-759941.7904163114</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-760789.7424163114</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-759850.7283163114</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-759213.3107163113</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-782228.8641163113</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-771945.7708163114</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-768859.1260163113</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-769370.8007163113</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-769370.8007163113</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-769281.2823163114</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-769394.9173163114</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-767880.9657163114</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-767870.7746163113</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
